--- a/outputs-GTDB-r202/o__Oscillospirales.xlsx
+++ b/outputs-GTDB-r202/o__Oscillospirales.xlsx
@@ -1372,7 +1372,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7092,7 @@
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -10212,7 +10212,7 @@
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>f__Ruminococcaceae</t>
+          <t>f__Ruminococcaceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>f__Oscillospiraceae</t>
+          <t>f__Oscillospiraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>f__Acutalibacteraceae</t>
+          <t>f__Acutalibacteraceae(reject)</t>
         </is>
       </c>
     </row>
